--- a/approaches/our_data/our_ground_truth/GitLab Repository API/response_property_constraints.xlsx
+++ b/approaches/our_data/our_ground_truth/GitLab Repository API/response_property_constraints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\our_data\our_ground_truth\GitLab Repository API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3BE821-C203-49E2-8E20-9569E075DCCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9201D828-C513-4EFD-AB70-07820D44EFE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9750" yWindow="3270" windowWidth="18450" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_property_constraints" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>operation</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Contributor</t>
+  </si>
+  <si>
+    <t>marked_for_deletion_at</t>
   </si>
 </sst>
 </file>
@@ -938,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1228,6 +1231,40 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
         <v>24</v>
       </c>
     </row>
